--- a/merge_fault_seeded.xlsx
+++ b/merge_fault_seeded.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>coverage test(100%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fault code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description of the fault</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Line number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge sort </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <r>
-      <t>if (array[d] &gt; array</t>
+      <t xml:space="preserve">      number = values.length</t>
     </r>
     <r>
       <rPr>
@@ -33,7 +53,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>[d+2]</t>
+      <t>-1</t>
     </r>
     <r>
       <rPr>
@@ -44,38 +64,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>)</t>
+      <t>;</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>add "if(c==1)
-     break;" in the outer loop</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> final int temp = arr[pos2];</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>coverage test(100%)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mutation test(80%)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    // arr[pos2] = temp;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>n = array.length+1;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mutation test(96%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>for (</t>
+      <t xml:space="preserve">      number = values.length+</t>
     </r>
     <r>
       <rPr>
@@ -86,7 +85,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>c = 1</t>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -97,117 +96,20 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>; c &lt; ( n - 1 ); c++)</t>
+      <t>;</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">for (d = 0; d &lt; n </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> c - 1; d++)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">if (array[d] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>!=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> array[d+1])</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>n = array.length-1;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Lswap does not work for (d = 0; d &lt; n - c - 1; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>d+=2)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fault code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>description of the fault</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Line number</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10-11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge sort </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      int j = middle ;//+ 1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      if (low != high) {</t>
   </si>
 </sst>
 </file>
@@ -218,14 +120,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -251,6 +145,14 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -289,40 +191,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -334,15 +238,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="33">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -358,6 +265,7 @@
     <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -373,6 +281,7 @@
     <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -705,7 +614,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -719,34 +628,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="5" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="6" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -755,17 +664,17 @@
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="5"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -773,7 +682,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -782,157 +691,109 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="5"/>
+    <row r="5" spans="1:6">
+      <c r="A5" s="6"/>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1">
         <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="5"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="1">
         <v>4</v>
       </c>
       <c r="C6" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="5"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="1">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="5"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="1">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
-        <v>23</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="5"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="1">
         <v>7</v>
       </c>
-      <c r="C9" s="1">
-        <v>25</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="5"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="1">
         <v>8</v>
       </c>
-      <c r="C10" s="1">
-        <v>10</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="5"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="1">
         <v>9</v>
       </c>
-      <c r="C11" s="1">
-        <v>11</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="5"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="1">
         <v>10</v>
       </c>
-      <c r="C12" s="1">
-        <v>12</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -942,7 +803,7 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="A1:B2"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/merge_fault_seeded.xlsx
+++ b/merge_fault_seeded.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14320" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="540" windowWidth="25040" windowHeight="13780" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>coverage test(100%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,8 +73,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">      number = values.length+</t>
+    <t>35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      for (int i = </t>
     </r>
     <r>
       <rPr>
@@ -85,7 +89,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1</t>
+      <t>high</t>
     </r>
     <r>
       <rPr>
@@ -96,20 +100,197 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>; i &lt;= high; i++) {</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      if (low </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> high) {</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      if (low </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>!=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> high) {</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      int j = middle </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;//+ 1;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      number = values.length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>;</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      int j = middle ;//+ 1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      if (low != high) {</t>
+    <r>
+      <t xml:space="preserve">      int i = low</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      while (i &lt;= middle </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>||</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> j &lt;= high) {</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        if (helper[i] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>!=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> helper[j]) {</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       // mergesort(middle + 1, high);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        int middle = 0;//low + (high - low) / 2;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          j++ -&gt; j--;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       // k++;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -191,8 +372,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -229,27 +414,27 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="37">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -266,6 +451,8 @@
     <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -282,6 +469,8 @@
     <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -611,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -628,33 +817,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
       <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="7"/>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1">
@@ -674,7 +863,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -682,7 +871,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -692,25 +881,25 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="6"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>9</v>
+      <c r="C5" s="1">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="6"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -728,80 +917,184 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="6"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="C7" s="1">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="6"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="1">
         <v>6</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="C8" s="1">
+        <v>30</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="6"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="1">
         <v>7</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="C9" s="1">
+        <v>34</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="6"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="1">
         <v>8</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="6"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="1">
         <v>9</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="C11" s="1">
+        <v>39</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="6"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="1">
         <v>10</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="C12" s="1">
+        <v>40</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="7"/>
+      <c r="B13" s="6">
+        <v>11</v>
+      </c>
+      <c r="C13" s="6">
+        <v>17</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="7"/>
+      <c r="B14" s="6">
+        <v>12</v>
+      </c>
+      <c r="C14" s="6">
+        <v>45</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="6">
+        <v>13</v>
+      </c>
+      <c r="C15" s="6">
+        <v>52</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="E16">
+        <f>SUM(E6:E15)/COUNT(E6:E15)</f>
+        <v>0.7</v>
+      </c>
+      <c r="F16">
+        <f>SUM(F6:F15)/COUNT(F6:F15)</f>
+        <v>0.9</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A3:A12"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A3:A15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/merge_fault_seeded.xlsx
+++ b/merge_fault_seeded.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="540" windowWidth="25040" windowHeight="13780" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,30 +19,306 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>coverage test(100%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>description of the fault</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Line number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge sort </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      number = values.length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mutation test(96%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      for (int i = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>high</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; i &lt;= high; i++) {</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      if (low </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> high) {</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      if (low </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>!=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> high) {</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      int j = middle </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;//+ 1;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      number = values.length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      int i = low</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      while (i &lt;= middle </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>||</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> j &lt;= high) {</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        if (helper[i] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>!=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> helper[j]) {</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       // mergesort(middle + 1, high);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        int middle = 0;//low + (high - low) / 2;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          j++ -&gt; j--;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       // k++;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seed fault number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>fault code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>description of the fault</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Line number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge sort </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">      number = values.length</t>
+    <t xml:space="preserve">      this.helper = new int[number-1];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      mergesort(0, number);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        int middle = low + (high - low);// / 2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      for (int i = low; i &lt;= high; i+=2) {</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        int middle = low + (high </t>
     </r>
     <r>
       <rPr>
@@ -53,7 +329,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>-1</t>
+      <t>+</t>
     </r>
     <r>
       <rPr>
@@ -64,232 +340,16 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mutation test(96%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">      for (int i = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>high</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>; i &lt;= high; i++) {</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">      if (low </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> high) {</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">      if (low </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>!=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> high) {</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">      int j = middle </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;//+ 1;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">      number = values.length</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">      int i = low</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">      while (i &lt;= middle </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>||</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> j &lt;= high) {</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        if (helper[i] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>!=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> helper[j]) {</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">       // mergesort(middle + 1, high);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        int middle = 0;//low + (high - low) / 2;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          j++ -&gt; j--;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">       // k++;</t>
+      <t xml:space="preserve"> low) / 2;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        mergesort(middle, high);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      mergesort(1, number - 1);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -348,7 +408,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -371,8 +431,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -410,8 +512,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -427,6 +533,25 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -434,7 +559,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="41">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -453,6 +578,8 @@
     <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -471,6 +598,8 @@
     <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -800,10 +929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:F16"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -817,35 +946,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="7" t="s">
+      <c r="A1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="11"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="A3" s="11"/>
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -853,7 +984,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -863,7 +994,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="7"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -871,7 +1002,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -881,7 +1012,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="7"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -889,7 +1020,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -899,7 +1030,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="7"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -907,7 +1038,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -917,7 +1048,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="7"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -925,7 +1056,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -935,7 +1066,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="7"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -943,7 +1074,7 @@
         <v>30</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -953,7 +1084,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="7"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -961,7 +1092,7 @@
         <v>34</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -971,15 +1102,15 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="7"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="1">
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -989,7 +1120,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="7"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -997,7 +1128,7 @@
         <v>39</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -1007,7 +1138,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="7"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -1015,7 +1146,7 @@
         <v>40</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -1025,7 +1156,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="7"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="6">
         <v>11</v>
       </c>
@@ -1033,7 +1164,7 @@
         <v>17</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" s="6">
         <v>1</v>
@@ -1043,7 +1174,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="7"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="6">
         <v>12</v>
       </c>
@@ -1051,7 +1182,7 @@
         <v>45</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" s="6">
         <v>0</v>
@@ -1061,7 +1192,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="7"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="6">
         <v>13</v>
       </c>
@@ -1069,7 +1200,7 @@
         <v>52</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" s="6">
         <v>0</v>
@@ -1079,22 +1210,152 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="E16">
-        <f>SUM(E6:E15)/COUNT(E6:E15)</f>
-        <v>0.7</v>
-      </c>
-      <c r="F16">
-        <f>SUM(F6:F15)/COUNT(F6:F15)</f>
-        <v>0.9</v>
+      <c r="A16" s="11"/>
+      <c r="B16" s="6">
+        <v>14</v>
+      </c>
+      <c r="C16" s="8">
+        <v>10</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1</v>
+      </c>
+      <c r="F16" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="11"/>
+      <c r="B17" s="6">
+        <v>15</v>
+      </c>
+      <c r="C17" s="8">
+        <v>11</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1</v>
+      </c>
+      <c r="F17" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="11"/>
+      <c r="B18" s="6">
+        <v>16</v>
+      </c>
+      <c r="C18" s="8">
+        <v>17</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1</v>
+      </c>
+      <c r="F18" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="11"/>
+      <c r="B19" s="6">
+        <v>17</v>
+      </c>
+      <c r="C19" s="8">
+        <v>30</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1</v>
+      </c>
+      <c r="F19" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="11"/>
+      <c r="B20" s="6">
+        <v>18</v>
+      </c>
+      <c r="C20" s="8">
+        <v>21</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="11"/>
+      <c r="B21" s="6">
+        <v>19</v>
+      </c>
+      <c r="C21" s="8">
+        <v>17</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0</v>
+      </c>
+      <c r="F21" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="11"/>
+      <c r="B22" s="6">
+        <v>20</v>
+      </c>
+      <c r="C22" s="8">
+        <v>11</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="11"/>
+      <c r="B23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23">
+        <f>SUM(E3:E22)/COUNT(E3:E22)</f>
+        <v>0.65</v>
+      </c>
+      <c r="F23">
+        <f>SUM(F3:F22)/COUNT(F3:F22)</f>
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A1:A23"/>
+    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A3:A15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
